--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34387.62439061902</v>
+        <v>6815942.411997393</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34387.62439061902</v>
+        <v>6815942.411997393</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13650.71340446573</v>
+        <v>819736.9726627959</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13650.71340446573</v>
+        <v>819736.9726627959</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1037505715.230275</v>
+        <v>43897943.6998044</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10591.08397223734</v>
+        <v>1204633.597252921</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19042.03326481296</v>
+        <v>2054713.099477422</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27492.98255738856</v>
+        <v>2904792.601701925</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36327.33566115233</v>
+        <v>3714910.553842296</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45184.51478792114</v>
+        <v>4536708.223974755</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53830.68616608244</v>
+        <v>5398147.493672332</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62383.63802085636</v>
+        <v>6247967.019509328</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70936.23998476777</v>
+        <v>7097786.545346322</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79639.39953485348</v>
+        <v>7914940.139120577</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88391.03856666152</v>
+        <v>8741741.149757572</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97142.67759846956</v>
+        <v>9568542.16039457</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>105894.3166302776</v>
+        <v>10395343.17103157</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114645.9556620856</v>
+        <v>11222144.18166858</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123402.6159123548</v>
+        <v>12048214.05280562</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132161.3714360672</v>
+        <v>12874497.0893627</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>73</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
